--- a/biology/Histoire de la zoologie et de la botanique/Charles_Willson_Peale/Charles_Willson_Peale.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Willson_Peale/Charles_Willson_Peale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Willson Peale est un peintre et un naturaliste américain, né le 15 avril 1741 à Chester (Maryland) et mort le 22 février 1827.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est souvent considéré comme le fondateur du premier grand musée des États-Unis. On lui doit en effet la création du Peale Museum à Philadelphie[2], qui ouvrit officiellement ses portes le 18 juillet 1786[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est souvent considéré comme le fondateur du premier grand musée des États-Unis. On lui doit en effet la création du Peale Museum à Philadelphie, qui ouvrit officiellement ses portes le 18 juillet 1786.
 Sa famille compte d'autres artistes et peintres renommés : son frère James Peale, portraitiste et miniaturiste, mais aussi ses fils à qui il donna des noms de peintres flamands. L'aîné, Rembrandt (1778-1860) était un peintre renommé et l'aida lors de la construction du musée. Son cadet était Rubens Peale (1784-1864) et souffrait d'une maladie des yeux, mais n'en demeura pas moins un artiste confirmé et un directeur de musée fidèle à son père.
-Il a réalisé de nombreux portraits de George Washington[4].
+Il a réalisé de nombreux portraits de George Washington.
 </t>
         </is>
       </c>
